--- a/test2/Data.xlsx
+++ b/test2/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>input1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -442,6 +446,20 @@
       </c>
       <c r="D4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/test2/Data.xlsx
+++ b/test2/Data.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/test2/Data.xlsx
+++ b/test2/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>input1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -460,6 +464,20 @@
       </c>
       <c r="D5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
